--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.3855726088957</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H2">
-        <v>17.3855726088957</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I2">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906668</v>
       </c>
       <c r="J2">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906667</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.161363346507542</v>
+        <v>0.3777296666666667</v>
       </c>
       <c r="N2">
-        <v>0.161363346507542</v>
+        <v>1.133189</v>
       </c>
       <c r="O2">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="P2">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="Q2">
-        <v>2.805394177121268</v>
+        <v>6.578159626802223</v>
       </c>
       <c r="R2">
-        <v>2.805394177121268</v>
+        <v>59.20343664122001</v>
       </c>
       <c r="S2">
-        <v>0.1102343771837924</v>
+        <v>0.2033390162711643</v>
       </c>
       <c r="T2">
-        <v>0.1102343771837924</v>
+        <v>0.2033390162711642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.3855726088957</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H3">
-        <v>17.3855726088957</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I3">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906668</v>
       </c>
       <c r="J3">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906667</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.05959033377379</v>
+        <v>1.092289666666667</v>
       </c>
       <c r="N3">
-        <v>1.05959033377379</v>
+        <v>3.276869</v>
       </c>
       <c r="O3">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="P3">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="Q3">
-        <v>18.42158468350825</v>
+        <v>19.02221726306889</v>
       </c>
       <c r="R3">
-        <v>18.42158468350825</v>
+        <v>171.19995536762</v>
       </c>
       <c r="S3">
-        <v>0.7238526161085856</v>
+        <v>0.5880001649411296</v>
       </c>
       <c r="T3">
-        <v>0.7238526161085856</v>
+        <v>0.5880001649411295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.3855726088957</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H4">
-        <v>17.3855726088957</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I4">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906668</v>
       </c>
       <c r="J4">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906667</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.206895846244706</v>
+        <v>0.310473</v>
       </c>
       <c r="N4">
-        <v>0.206895846244706</v>
+        <v>0.931419</v>
       </c>
       <c r="O4">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="P4">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="Q4">
-        <v>3.597002757366257</v>
+        <v>5.406885225180001</v>
       </c>
       <c r="R4">
-        <v>3.597002757366257</v>
+        <v>48.66196702662</v>
       </c>
       <c r="S4">
-        <v>0.1413396241855511</v>
+        <v>0.1671334818783729</v>
       </c>
       <c r="T4">
-        <v>0.1413396241855511</v>
+        <v>0.1671334818783729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.437985101522309</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H5">
-        <v>0.437985101522309</v>
+        <v>0.490424</v>
       </c>
       <c r="I5">
-        <v>0.02457338252207096</v>
+        <v>0.008997189726622102</v>
       </c>
       <c r="J5">
-        <v>0.02457338252207096</v>
+        <v>0.0089971897266221</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.161363346507542</v>
+        <v>0.3777296666666667</v>
       </c>
       <c r="N5">
-        <v>0.161363346507542</v>
+        <v>1.133189</v>
       </c>
       <c r="O5">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="P5">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="Q5">
-        <v>0.07067474170208531</v>
+        <v>0.06174923134844446</v>
       </c>
       <c r="R5">
-        <v>0.07067474170208531</v>
+        <v>0.555743082136</v>
       </c>
       <c r="S5">
-        <v>0.002777073609723261</v>
+        <v>0.001908744796452587</v>
       </c>
       <c r="T5">
-        <v>0.002777073609723261</v>
+        <v>0.001908744796452586</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -779,49 +785,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.437985101522309</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H6">
-        <v>0.437985101522309</v>
+        <v>0.490424</v>
       </c>
       <c r="I6">
-        <v>0.02457338252207096</v>
+        <v>0.008997189726622102</v>
       </c>
       <c r="J6">
-        <v>0.02457338252207096</v>
+        <v>0.0089971897266221</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.05959033377379</v>
+        <v>1.092289666666667</v>
       </c>
       <c r="N6">
-        <v>1.05959033377379</v>
+        <v>3.276869</v>
       </c>
       <c r="O6">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="P6">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="Q6">
-        <v>0.4640847799099707</v>
+        <v>0.1785616891617778</v>
       </c>
       <c r="R6">
-        <v>0.4640847799099707</v>
+        <v>1.607055202456</v>
       </c>
       <c r="S6">
-        <v>0.01823561804293344</v>
+        <v>0.005519561743369191</v>
       </c>
       <c r="T6">
-        <v>0.01823561804293344</v>
+        <v>0.00551956174336919</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1634746666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.490424</v>
+      </c>
+      <c r="I7">
+        <v>0.008997189726622102</v>
+      </c>
+      <c r="J7">
+        <v>0.0089971897266221</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.310473</v>
+      </c>
+      <c r="N7">
+        <v>0.931419</v>
+      </c>
+      <c r="O7">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="P7">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="Q7">
+        <v>0.05075447018400001</v>
+      </c>
+      <c r="R7">
+        <v>0.456790231656</v>
+      </c>
+      <c r="S7">
+        <v>0.001568883186800324</v>
+      </c>
+      <c r="T7">
+        <v>0.001568883186800323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.08025166666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.240755</v>
+      </c>
+      <c r="I8">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="J8">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.3777296666666667</v>
+      </c>
+      <c r="N8">
+        <v>1.133189</v>
+      </c>
+      <c r="O8">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="P8">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="Q8">
+        <v>0.03031343529944444</v>
+      </c>
+      <c r="R8">
+        <v>0.272820917695</v>
+      </c>
+      <c r="S8">
+        <v>0.0009370256216456423</v>
+      </c>
+      <c r="T8">
+        <v>0.0009370256216456422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.08025166666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.240755</v>
+      </c>
+      <c r="I9">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="J9">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.092289666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.276869</v>
+      </c>
+      <c r="O9">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="P9">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="Q9">
+        <v>0.08765806623277778</v>
+      </c>
+      <c r="R9">
+        <v>0.788922596095</v>
+      </c>
+      <c r="S9">
+        <v>0.002709618794196143</v>
+      </c>
+      <c r="T9">
+        <v>0.002709618794196143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.437985101522309</v>
-      </c>
-      <c r="H7">
-        <v>0.437985101522309</v>
-      </c>
-      <c r="I7">
-        <v>0.02457338252207096</v>
-      </c>
-      <c r="J7">
-        <v>0.02457338252207096</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.206895846244706</v>
-      </c>
-      <c r="N7">
-        <v>0.206895846244706</v>
-      </c>
-      <c r="O7">
-        <v>0.1449003150549654</v>
-      </c>
-      <c r="P7">
-        <v>0.1449003150549654</v>
-      </c>
-      <c r="Q7">
-        <v>0.0906172982220316</v>
-      </c>
-      <c r="R7">
-        <v>0.0906172982220316</v>
-      </c>
-      <c r="S7">
-        <v>0.003560690869414262</v>
-      </c>
-      <c r="T7">
-        <v>0.003560690869414262</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.08025166666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.240755</v>
+      </c>
+      <c r="I10">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="J10">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.310473</v>
+      </c>
+      <c r="N10">
+        <v>0.931419</v>
+      </c>
+      <c r="O10">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="P10">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="Q10">
+        <v>0.024915975705</v>
+      </c>
+      <c r="R10">
+        <v>0.224243781345</v>
+      </c>
+      <c r="S10">
+        <v>0.0007701834976226935</v>
+      </c>
+      <c r="T10">
+        <v>0.0007701834976226934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5108056666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.532417</v>
+      </c>
+      <c r="I11">
+        <v>0.02811331926924674</v>
+      </c>
+      <c r="J11">
+        <v>0.02811331926924673</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3777296666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.133189</v>
+      </c>
+      <c r="O11">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="P11">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="Q11">
+        <v>0.1929464542014445</v>
+      </c>
+      <c r="R11">
+        <v>1.736518087813</v>
+      </c>
+      <c r="S11">
+        <v>0.005964212548214369</v>
+      </c>
+      <c r="T11">
+        <v>0.005964212548214368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5108056666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.532417</v>
+      </c>
+      <c r="I12">
+        <v>0.02811331926924674</v>
+      </c>
+      <c r="J12">
+        <v>0.02811331926924673</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.092289666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.276869</v>
+      </c>
+      <c r="O12">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="P12">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="Q12">
+        <v>0.5579477513747778</v>
+      </c>
+      <c r="R12">
+        <v>5.021529762373</v>
+      </c>
+      <c r="S12">
+        <v>0.01724685220969729</v>
+      </c>
+      <c r="T12">
+        <v>0.01724685220969729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5108056666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.532417</v>
+      </c>
+      <c r="I13">
+        <v>0.02811331926924674</v>
+      </c>
+      <c r="J13">
+        <v>0.02811331926924673</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.310473</v>
+      </c>
+      <c r="N13">
+        <v>0.931419</v>
+      </c>
+      <c r="O13">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="P13">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="Q13">
+        <v>0.158591367747</v>
+      </c>
+      <c r="R13">
+        <v>1.427322309723</v>
+      </c>
+      <c r="S13">
+        <v>0.004902254511335072</v>
+      </c>
+      <c r="T13">
+        <v>0.004902254511335071</v>
       </c>
     </row>
   </sheetData>
